--- a/public/import/user_template (2).xlsx
+++ b/public/import/user_template (2).xlsx
@@ -1,25 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27531"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS-A4\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\finance online\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{766F5B3F-2F86-4F02-901F-CEEA3D992E48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12315"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" forceFullCalc="1"/>
+  <calcPr calcId="191029" forceFullCalc="1"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>nama_lengkap</t>
   </si>
@@ -48,42 +60,45 @@
     <t>password</t>
   </si>
   <si>
-    <t>OKI FAUZI</t>
-  </si>
-  <si>
-    <t>okifa123</t>
-  </si>
-  <si>
-    <t>DSF/DM</t>
-  </si>
-  <si>
     <t>CV.TOP</t>
   </si>
   <si>
+    <t>POERNAMA</t>
+  </si>
+  <si>
     <t>REALME</t>
   </si>
   <si>
-    <t>BIGCIREBON</t>
-  </si>
-  <si>
-    <t>CRB8</t>
-  </si>
-  <si>
-    <t>ROBBY AGUSTINA</t>
-  </si>
-  <si>
-    <t>okifauzi</t>
+    <t>ASC</t>
+  </si>
+  <si>
+    <t>BIGTASIK</t>
+  </si>
+  <si>
+    <t>TSK1</t>
+  </si>
+  <si>
+    <t>SUSILA SODIKIN</t>
+  </si>
+  <si>
+    <t>poernama123</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -106,8 +121,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -411,20 +427,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="8" max="8" width="27.28515625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -453,33 +465,33 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>15</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="I2" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/public/import/user_template (2).xlsx
+++ b/public/import/user_template (2).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10811"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\finance online\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apriansyahrs/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{766F5B3F-2F86-4F02-901F-CEEA3D992E48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2D1C263-5FB0-BD4C-8D7E-AD116C006EAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>nama_lengkap</t>
   </si>
@@ -60,28 +62,31 @@
     <t>password</t>
   </si>
   <si>
-    <t>CV.TOP</t>
-  </si>
-  <si>
-    <t>POERNAMA</t>
-  </si>
-  <si>
-    <t>REALME</t>
-  </si>
-  <si>
-    <t>ASC</t>
-  </si>
-  <si>
-    <t>BIGTASIK</t>
-  </si>
-  <si>
-    <t>TSK1</t>
-  </si>
-  <si>
-    <t>SUSILA SODIKIN</t>
-  </si>
-  <si>
-    <t>poernama123</t>
+    <t>complete123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	CV.TOP</t>
+  </si>
+  <si>
+    <t>ARIS ALFARISI</t>
+  </si>
+  <si>
+    <t>arisalfarisi</t>
+  </si>
+  <si>
+    <t>DSF</t>
+  </si>
+  <si>
+    <t>JABAR1</t>
+  </si>
+  <si>
+    <t>ORAIMO</t>
+  </si>
+  <si>
+    <t>ADI SUAHDI</t>
+  </si>
+  <si>
+    <t>CIREBONO</t>
   </si>
 </sst>
 </file>
@@ -431,71 +436,84 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17.5" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.83203125" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>